--- a/outputs/ModelComparison.xlsx
+++ b/outputs/ModelComparison.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1568702601797395</v>
+        <v>0.148594237862952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5129793438137498</v>
+        <v>0.5616686860313769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.201978988704432</v>
+        <v>0.1916168741835212</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.154889587757334</v>
+        <v>0.1469715627333829</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5442086058306255</v>
+        <v>0.5930333516073436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1953959523995398</v>
+        <v>0.1846340994122984</v>
       </c>
     </row>
   </sheetData>
